--- a/Assets/Editor/Sheets/Cards.xlsx
+++ b/Assets/Editor/Sheets/Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\AfterDay\Assets\Editor\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0C7C20-BAAA-4250-98F9-24260EB0B1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F451B5-6B4D-4382-B07B-E7EAC780DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Robot" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t xml:space="preserve">ID </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,9 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pawnName</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -134,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pawnName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +172,10 @@
   </si>
   <si>
     <t>1;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -522,25 +519,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -557,13 +554,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -589,10 +586,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -618,10 +615,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -641,16 +638,16 @@
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -670,16 +667,16 @@
         <v>10002</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -705,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E547E25-290C-4F35-B562-633254BF6507}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -723,25 +720,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,22 +749,22 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -781,10 +778,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -807,10 +804,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -824,19 +821,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>3</v>

--- a/Assets/Editor/Sheets/Cards.xlsx
+++ b/Assets/Editor/Sheets/Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\AfterDay\Assets\Editor\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F451B5-6B4D-4382-B07B-E7EAC780DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59D1168-9185-487F-A5B7-6CAF701733D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Robot" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t xml:space="preserve">ID </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
   </si>
   <si>
     <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -504,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -522,7 +518,7 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
@@ -531,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -586,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -618,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -647,7 +643,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -676,7 +672,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -702,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E547E25-290C-4F35-B562-633254BF6507}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -720,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -729,7 +725,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
@@ -778,10 +774,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -807,7 +803,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -833,7 +829,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>3</v>
